--- a/ZOJ/solution.xlsx
+++ b/ZOJ/solution.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,141 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当n和m都是奇数的时候需要走一个对角线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找一个数在不同进制下的回文数。</t>
+  </si>
+  <si>
+    <t>输入的为一组数，每个位置的数表示当前右括号前左括号的个数。</t>
+  </si>
+  <si>
+    <t>暴力+二分</t>
+  </si>
+  <si>
+    <t>求三个数n1,n2,n3使其之和为另一个数字n。如果存在多种情况，求n值最大的一个。所以首先将所有的数字从小到大排列，从后向前求解，这样就保证求得的第一个赢家为最大值。</t>
+  </si>
+  <si>
+    <t>题号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一句话题解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当m+d为偶数时先行者必胜。</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同类型的方块只保存一次，并且保存相同方块出现的次数。</t>
+  </si>
+  <si>
+    <t>模拟象棋马的走法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐年计算被侵蚀的土地面积S=50n（n为年限），可得侵蚀的半圆土地的半径r=(2S/π)^(1/2)，从而计算屋子离圆心的距离d=(x^2+y^2)^(1/2)如果小于r则表示在第n年时屋子已经被侵蚀，反之则未被侵蚀。</t>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序。判断上一个字符串是否为当前字符串的前缀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个人轮流出牌，模拟即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个测试用例，不需要while循环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,13 +176,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +279,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C12">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="题号" dataDxfId="2"/>
+    <tableColumn id="2" name="分类" dataDxfId="1"/>
+    <tableColumn id="3" name="一句话题解" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +560,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1016</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1078</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1037</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1008</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1091</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1048</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1049</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1057</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1808</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ZOJ/solution.xlsx
+++ b/ZOJ/solution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>规律</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,38 @@
   </si>
   <si>
     <t>只有一个测试用例，不需要while循环。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生都会做的加法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断当前位置now和前一个位置pos的关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像缩放。看懂题目一遍AC。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,14 +158,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -141,14 +173,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -192,7 +224,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <strike val="0"/>
@@ -200,7 +232,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
         <charset val="134"/>
@@ -214,7 +246,21 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
         <charset val="134"/>
@@ -232,7 +278,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
         <charset val="134"/>
@@ -247,7 +293,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
         <charset val="134"/>
@@ -261,7 +307,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1"/>
         <name val="等线"/>
         <charset val="134"/>
@@ -282,18 +328,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D17">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="题号" dataDxfId="2"/>
-    <tableColumn id="2" name="分类" dataDxfId="1"/>
-    <tableColumn id="3" name="一句话题解" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="题号" dataDxfId="3"/>
+    <tableColumn id="2" name="分类" dataDxfId="2"/>
+    <tableColumn id="3" name="一句话题解" dataDxfId="1"/>
+    <tableColumn id="4" name="时间" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -560,20 +607,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,8 +632,11 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1016</v>
       </c>
@@ -594,8 +646,11 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1078</v>
       </c>
@@ -605,8 +660,11 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1037</v>
       </c>
@@ -616,8 +674,11 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
@@ -627,19 +688,25 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="D5" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>1024</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1008</v>
       </c>
@@ -649,8 +716,11 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1091</v>
       </c>
@@ -660,8 +730,11 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1048</v>
       </c>
@@ -671,8 +744,11 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1049</v>
       </c>
@@ -682,8 +758,11 @@
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>1057</v>
       </c>
@@ -693,8 +772,11 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>1808</v>
       </c>
@@ -704,6 +786,69 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D12" s="2">
+        <v>20170626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>1745</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20170627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>2812</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20170627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>2173</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20170627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>2187</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20170627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
